--- a/src/Elements.xlsx
+++ b/src/Elements.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="6135"/>
   </bookViews>
@@ -10,7 +10,6 @@
     <sheet name="webElements" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -71,12 +70,18 @@
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>another_element_btn</t>
+  </si>
+  <si>
+    <t>//b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,6 +485,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
